--- a/graphicalAnalysis/tickersCategories.xlsx
+++ b/graphicalAnalysis/tickersCategories.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="LLNzu4X6you+9X5uBl/HH4Uuf7xnmJLJHItpCEOl4vU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Ckd0N0Owel27+ewMvYDkbt81FntDd0kz9dZ596+tP4E="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="393">
   <si>
     <t>TICKER</t>
   </si>
@@ -225,19 +225,64 @@
     <t>DBO</t>
   </si>
   <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>PFF</t>
+  </si>
+  <si>
+    <t>RPRX</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t>ARCO</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>COPX</t>
+  </si>
+  <si>
+    <t>basicos</t>
+  </si>
+  <si>
+    <t>INDA</t>
+  </si>
+  <si>
+    <t>SMIN</t>
+  </si>
+  <si>
+    <t>energeticos</t>
+  </si>
+  <si>
     <t>UNG</t>
   </si>
   <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>IPO</t>
-  </si>
-  <si>
-    <t>PFF</t>
+    <t>XLG</t>
+  </si>
+  <si>
+    <t>EWN</t>
+  </si>
+  <si>
+    <t>EWD</t>
   </si>
   <si>
     <t>BBG</t>
@@ -790,9 +835,6 @@
   </si>
   <si>
     <t>Specialty Chemicals</t>
-  </si>
-  <si>
-    <t>ARCO</t>
   </si>
   <si>
     <t>ARCO US Equity</t>
@@ -1162,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1177,6 +1219,17 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1195,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1205,6 +1258,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2045,7 +2104,7 @@
         <v>34</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
@@ -2060,33 +2119,181 @@
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
+      <c r="A59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" ht="13.5" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="13.5" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="74" ht="13.5" customHeight="1"/>
     <row r="75" ht="13.5" customHeight="1"/>
     <row r="76" ht="13.5" customHeight="1"/>
@@ -3012,8 +3219,6 @@
     <row r="996" ht="13.5" customHeight="1"/>
     <row r="997" ht="13.5" customHeight="1"/>
     <row r="998" ht="13.5" customHeight="1"/>
-    <row r="999" ht="13.5" customHeight="1"/>
-    <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$C$73">
     <sortState ref="A1:C73">
@@ -3048,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3062,206 +3267,206 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -3269,1434 +3474,1434 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1"/>

--- a/graphicalAnalysis/tickersCategories.xlsx
+++ b/graphicalAnalysis/tickersCategories.xlsx
@@ -7,19 +7,19 @@
     <sheet state="visible" name="incl. deslistadas" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">MAIN!$A$1:$C$73</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">MAIN!$A$1:$C$97</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Ckd0N0Owel27+ewMvYDkbt81FntDd0kz9dZ596+tP4E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="3iDcISffKwU5c71ttK4LRiKtkI7M2MfWN22FDYSAe4Q="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="416">
   <si>
     <t>TICKER</t>
   </si>
@@ -114,175 +114,256 @@
     <t>BOAT</t>
   </si>
   <si>
-    <t>ITA</t>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>XHS</t>
+  </si>
+  <si>
+    <t>XHE</t>
+  </si>
+  <si>
+    <t>RPRX</t>
+  </si>
+  <si>
+    <t>EIS</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>acciones</t>
+  </si>
+  <si>
+    <t>RSP</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>EWZ-again</t>
+  </si>
+  <si>
+    <t>FXI-again</t>
+  </si>
+  <si>
+    <t>PINK</t>
+  </si>
+  <si>
+    <t>tickers</t>
+  </si>
+  <si>
+    <t>salud</t>
+  </si>
+  <si>
+    <t>PJP</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>XSW</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>SMH</t>
+  </si>
+  <si>
+    <t>IYC</t>
+  </si>
+  <si>
+    <t>cons disc</t>
+  </si>
+  <si>
+    <t>XLP</t>
+  </si>
+  <si>
+    <t>cons basico</t>
+  </si>
+  <si>
+    <t>FTXG</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>KMB</t>
+  </si>
+  <si>
+    <t>XLI</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>ITA-again</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>ITB</t>
+  </si>
+  <si>
+    <t>IWO</t>
+  </si>
+  <si>
+    <t>crecimiento</t>
+  </si>
+  <si>
+    <t>MSOS</t>
+  </si>
+  <si>
+    <t>commodities</t>
+  </si>
+  <si>
+    <t>WEED</t>
+  </si>
+  <si>
+    <t>DBO</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>PFF</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>COPX</t>
+  </si>
+  <si>
+    <t>basicos</t>
+  </si>
+  <si>
+    <t>INDA</t>
+  </si>
+  <si>
+    <t>SMIN</t>
+  </si>
+  <si>
+    <t>energeticos</t>
+  </si>
+  <si>
+    <t>UNG</t>
+  </si>
+  <si>
+    <t>XLG</t>
+  </si>
+  <si>
+    <t>EWN</t>
+  </si>
+  <si>
+    <t>EWD</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>yield hunger</t>
+  </si>
+  <si>
+    <t>CEIX</t>
+  </si>
+  <si>
+    <t>HOV</t>
+  </si>
+  <si>
+    <t>ARLP</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>FSI</t>
+  </si>
+  <si>
+    <t>RNGR</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>GTX</t>
+  </si>
+  <si>
+    <t>CAAP</t>
+  </si>
+  <si>
+    <t>ESCA</t>
+  </si>
+  <si>
+    <t>MPAA</t>
+  </si>
+  <si>
+    <t>80/20</t>
+  </si>
+  <si>
+    <t>industrials</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>SPY-again</t>
   </si>
   <si>
     <t>CEPU</t>
   </si>
   <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>acciones</t>
-  </si>
-  <si>
-    <t>RSP</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>EWZ-again</t>
-  </si>
-  <si>
-    <t>FXI-again</t>
-  </si>
-  <si>
-    <t>PINK</t>
-  </si>
-  <si>
-    <t>salud</t>
-  </si>
-  <si>
-    <t>PJP</t>
-  </si>
-  <si>
-    <t>XHE</t>
-  </si>
-  <si>
-    <t>XHS</t>
-  </si>
-  <si>
-    <t>GILD</t>
-  </si>
-  <si>
-    <t>BMY</t>
-  </si>
-  <si>
-    <t>XSW</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>SMH</t>
-  </si>
-  <si>
-    <t>IYC</t>
-  </si>
-  <si>
-    <t>cons disc</t>
-  </si>
-  <si>
-    <t>XLP</t>
-  </si>
-  <si>
-    <t>cons basico</t>
-  </si>
-  <si>
-    <t>FTXG</t>
-  </si>
-  <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>KMB</t>
-  </si>
-  <si>
-    <t>XLI</t>
-  </si>
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>ITA-again</t>
-  </si>
-  <si>
-    <t>LMT</t>
-  </si>
-  <si>
-    <t>ITB</t>
-  </si>
-  <si>
-    <t>IWO</t>
-  </si>
-  <si>
-    <t>crecimiento</t>
-  </si>
-  <si>
-    <t>MSOS</t>
-  </si>
-  <si>
-    <t>commodities</t>
-  </si>
-  <si>
-    <t>WEED</t>
-  </si>
-  <si>
-    <t>DBO</t>
-  </si>
-  <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>IPO</t>
-  </si>
-  <si>
-    <t>PFF</t>
-  </si>
-  <si>
-    <t>RPRX</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>IDX</t>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>YPF</t>
+  </si>
+  <si>
+    <t>BABA</t>
   </si>
   <si>
     <t>ARCO</t>
   </si>
   <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>COPX</t>
-  </si>
-  <si>
-    <t>basicos</t>
-  </si>
-  <si>
-    <t>INDA</t>
-  </si>
-  <si>
-    <t>SMIN</t>
-  </si>
-  <si>
-    <t>energeticos</t>
-  </si>
-  <si>
-    <t>UNG</t>
-  </si>
-  <si>
-    <t>XLG</t>
-  </si>
-  <si>
-    <t>EWN</t>
-  </si>
-  <si>
-    <t>EWD</t>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>VALE</t>
   </si>
   <si>
     <t>BBG</t>
@@ -339,9 +420,6 @@
     <t>Oil &amp; Gas Storage &amp; Transportation</t>
   </si>
   <si>
-    <t>YPF</t>
-  </si>
-  <si>
     <t>YPF US Equity</t>
   </si>
   <si>
@@ -429,9 +507,6 @@
     <t>Electric Utilities</t>
   </si>
   <si>
-    <t>PAM</t>
-  </si>
-  <si>
     <t>PAM US Equity</t>
   </si>
   <si>
@@ -624,9 +699,6 @@
     <t>Commodity Chemicals</t>
   </si>
   <si>
-    <t>VALE</t>
-  </si>
-  <si>
     <t>VALE US Equity</t>
   </si>
   <si>
@@ -1024,9 +1096,6 @@
   </si>
   <si>
     <t>FBP US Equity</t>
-  </si>
-  <si>
-    <t>CAAP</t>
   </si>
   <si>
     <t>CAAP US Equity</t>
@@ -1204,7 +1273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1233,6 +1302,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1248,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1264,6 +1339,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,7 +1559,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -1718,9 +1799,6 @@
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
@@ -1729,9 +1807,6 @@
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -1740,9 +1815,6 @@
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="2" t="s">
@@ -1751,71 +1823,53 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
@@ -1826,7 +1880,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -1837,271 +1891,271 @@
         <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
@@ -2109,29 +2163,29 @@
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="A58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>18</v>
@@ -2141,99 +2195,99 @@
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>14</v>
+      <c r="A60" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>14</v>
@@ -2241,83 +2295,323 @@
     </row>
     <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>14</v>
+      <c r="A71" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>14</v>
+      <c r="A72" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
+      <c r="A73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" ht="13.5" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" ht="13.5" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" ht="13.5" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" ht="13.5" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" ht="13.5" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" ht="13.5" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" ht="13.5" customHeight="1">
+      <c r="A82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" ht="13.5" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" ht="13.5" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" ht="13.5" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" ht="13.5" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" ht="13.5" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" ht="13.5" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" ht="13.5" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" ht="13.5" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" ht="13.5" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" ht="13.5" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" ht="13.5" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" ht="13.5" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" ht="13.5" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" ht="13.5" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" ht="13.5" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="98" ht="13.5" customHeight="1"/>
     <row r="99" ht="13.5" customHeight="1"/>
     <row r="100" ht="13.5" customHeight="1"/>
@@ -3185,44 +3479,10 @@
     <row r="962" ht="13.5" customHeight="1"/>
     <row r="963" ht="13.5" customHeight="1"/>
     <row r="964" ht="13.5" customHeight="1"/>
-    <row r="965" ht="13.5" customHeight="1"/>
-    <row r="966" ht="13.5" customHeight="1"/>
-    <row r="967" ht="13.5" customHeight="1"/>
-    <row r="968" ht="13.5" customHeight="1"/>
-    <row r="969" ht="13.5" customHeight="1"/>
-    <row r="970" ht="13.5" customHeight="1"/>
-    <row r="971" ht="13.5" customHeight="1"/>
-    <row r="972" ht="13.5" customHeight="1"/>
-    <row r="973" ht="13.5" customHeight="1"/>
-    <row r="974" ht="13.5" customHeight="1"/>
-    <row r="975" ht="13.5" customHeight="1"/>
-    <row r="976" ht="13.5" customHeight="1"/>
-    <row r="977" ht="13.5" customHeight="1"/>
-    <row r="978" ht="13.5" customHeight="1"/>
-    <row r="979" ht="13.5" customHeight="1"/>
-    <row r="980" ht="13.5" customHeight="1"/>
-    <row r="981" ht="13.5" customHeight="1"/>
-    <row r="982" ht="13.5" customHeight="1"/>
-    <row r="983" ht="13.5" customHeight="1"/>
-    <row r="984" ht="13.5" customHeight="1"/>
-    <row r="985" ht="13.5" customHeight="1"/>
-    <row r="986" ht="13.5" customHeight="1"/>
-    <row r="987" ht="13.5" customHeight="1"/>
-    <row r="988" ht="13.5" customHeight="1"/>
-    <row r="989" ht="13.5" customHeight="1"/>
-    <row r="990" ht="13.5" customHeight="1"/>
-    <row r="991" ht="13.5" customHeight="1"/>
-    <row r="992" ht="13.5" customHeight="1"/>
-    <row r="993" ht="13.5" customHeight="1"/>
-    <row r="994" ht="13.5" customHeight="1"/>
-    <row r="995" ht="13.5" customHeight="1"/>
-    <row r="996" ht="13.5" customHeight="1"/>
-    <row r="997" ht="13.5" customHeight="1"/>
-    <row r="998" ht="13.5" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$C$73">
-    <sortState ref="A1:C73">
-      <sortCondition ref="A1:A73"/>
+  <autoFilter ref="$A$1:$C$97">
+    <sortState ref="A1:C97">
+      <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
   <printOptions/>
@@ -3253,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3267,1641 +3527,1641 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>335</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1"/>
